--- a/biology/Botanique/Jardin_botanique_de_Tours/Jardin_botanique_de_Tours.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Tours/Jardin_botanique_de_Tours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin Botanique de Tours est situé à l'Ouest de la ville boulevard Tonnellé, face à la l'hôpital Bretonneau. Il est implanté sur une ancienne zone humide traversée autrefois par le ruisseau Sainte-Anne. Ce cours d'eau reliait directement la Loire et le Cher et alimentait les douves du château de Plessis-lès-Tours.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Tours fut construit entre 1831 et 1843 grâce aux tourangeaux et tout particulièrement à la ténacité, sans la générosité, de Jean-Anthyme Margueron, pharmacien. En effet, ce pharmacien fut à l'initiative de ce projet comportant une école de botanique destinée aux étudiants de la nouvelle école de Médecine et de Pharmacie située en face du jardin.
 David Barnsby, médecin et directeur du jardin, permit dès 1869 l'acquisition de quelques animaux exotiques.
@@ -524,7 +538,7 @@
 Toujours dans la volonté d'une constante évolution, une création contemporaine, le jardin du Design végétal (ou "D'un Monde à l'Autre" ?), a vu le jour au nord des serres en 2009.
 Depuis 1945, le jardin a un double statut : le Service municipal des Parcs et Jardins assure la direction technique et le Laboratoire universitaire de Botanique et de Biologie Végétale de l'U.F.R. des Sciences Pharmaceutiques coordonne la direction scientifique.
 Cette organisation originale a permis au jardin d'obtenir l'agrément "Jardin Botanique de France et des Pays Francophones" en 2000.
-Le jardin est à l'inventaire général du patrimoine culturel français[1].
+Le jardin est à l'inventaire général du patrimoine culturel français.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui le jardin continue à mener différentes missions :
 assurer la sauvegarde de plantes rares et protégées par leur conservation ex situ et l'échange de matériel végétal entre les jardins botaniques du monde entier grâce à l'Index Seminum,
